--- a/config_debug/sysbypms_rank_config.xlsx
+++ b/config_debug/sysbypms_rank_config.xlsx
@@ -5,21 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\JyQipai_doc\config_3D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25335" windowHeight="10830"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25335" windowHeight="10830" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="config|每日奖励" sheetId="1" r:id="rId1"/>
+    <sheet name="pms_config|排名赛" sheetId="2" r:id="rId2"/>
+    <sheet name="pms_award|排名赛奖励" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="95">
   <si>
     <t>id|行号</t>
   </si>
@@ -73,6 +75,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -83,13 +86,554 @@
   <si>
     <t>"ty_icon_flq1","ty_icon_jb_30y",</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>game_tag|游戏标签</t>
+  </si>
+  <si>
+    <t>game_id|比赛id</t>
+  </si>
+  <si>
+    <t>game_type|游戏类型</t>
+  </si>
+  <si>
+    <t>game_name|游戏名字</t>
+  </si>
+  <si>
+    <t>game_type_name|游戏场次名字</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui_order|ui显示的顺序号</t>
+  </si>
+  <si>
+    <t>enter_condi_itemkey|报名道具</t>
+  </si>
+  <si>
+    <t>enter_condi_item_count|道具数量</t>
+  </si>
+  <si>
+    <t>award_desc|奖励描述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>award</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>icon|奖励图标</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi_min|进入最小金币限制</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi_max|进入最大金币限制</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>match_bullet_num|比赛子弹数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>match_time|比赛耗时（分钟）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>award|奖励</t>
+  </si>
+  <si>
+    <t>desc|报名详情界面描述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_id|商城等级</t>
+  </si>
+  <si>
+    <t>ios_pay_id|商城等级</t>
+  </si>
+  <si>
+    <t>gift_id|商城等级</t>
+  </si>
+  <si>
+    <t>diamond_id|对应购买钻石档次</t>
+  </si>
+  <si>
+    <t>award_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pms</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>game_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fishing3D</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>50福利券赛</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼神秘海域场</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"jing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_bi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"50福利券",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_flq1",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>满2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>人开赛</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>福利券赛</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼海底宝藏场</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_gns_ticket","jing_bi",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,20000,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"200福利券",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_flq2",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>福利券赛</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼藏宝海湾场</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"500福利券",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_flq3",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>福利券赛</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>福利券赛</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼深海沉船场</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1000福利券",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>id|行号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>award_id|奖励id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rank_name|段位名字</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon|段位图标</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_local_icon</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in_score|最小分数，-1表示无下限</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_score|最大分数，-1表示无上限</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>award_desc|奖励描述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0B0B"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>award</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>icon|奖励图标</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金段位</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bs_icon_hj</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"50福利券",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_flq1",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>白银段位</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bs_icon_by</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"30000鲸币",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_18y",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>青铜段位</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bs_icon_qt</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"10000鲸币",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_15y",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金段位</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"200福利券",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bs_icon_by</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"100000鲸币",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_30y",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>青铜段位</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"50000鲸币",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_18y",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"500福利券",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_flq3",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"300000鲸币",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_98y",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bs_icon_qt</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"500000鲸币",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"200000鲸币",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,23 +645,27 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -136,6 +684,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF191F25"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -151,7 +705,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -174,6 +728,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -182,7 +747,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -200,6 +765,35 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -480,8 +1074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -918,4 +1512,826 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="18.375" customWidth="1"/>
+    <col min="14" max="14" width="13.375" customWidth="1"/>
+    <col min="15" max="15" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.625" customWidth="1"/>
+    <col min="17" max="17" width="18.75" customWidth="1"/>
+    <col min="19" max="19" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="8">
+        <v>2</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="11">
+        <v>1</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="8">
+        <v>1000</v>
+      </c>
+      <c r="M2" s="8">
+        <v>2000000</v>
+      </c>
+      <c r="N2" s="9">
+        <v>1000</v>
+      </c>
+      <c r="O2" s="9">
+        <v>10</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>101</v>
+      </c>
+      <c r="T2">
+        <v>76</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="8">
+        <v>3</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="11">
+        <v>2</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="8">
+        <v>10000</v>
+      </c>
+      <c r="M3" s="8">
+        <v>20000000</v>
+      </c>
+      <c r="N3" s="9">
+        <v>1000</v>
+      </c>
+      <c r="O3" s="9">
+        <v>10</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>101</v>
+      </c>
+      <c r="T3">
+        <v>77</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="8">
+        <v>4</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="11">
+        <v>3</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" s="13">
+        <v>100000</v>
+      </c>
+      <c r="M4" s="9">
+        <v>99999999999</v>
+      </c>
+      <c r="N4" s="9">
+        <v>1000</v>
+      </c>
+      <c r="O4" s="9">
+        <v>10</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>101</v>
+      </c>
+      <c r="T4">
+        <v>80</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="8">
+        <v>5</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="11">
+        <v>4</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="M5" s="9">
+        <v>99999999999</v>
+      </c>
+      <c r="N5" s="9">
+        <v>1000</v>
+      </c>
+      <c r="O5" s="9">
+        <v>10</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>102</v>
+      </c>
+      <c r="T5">
+        <v>82</v>
+      </c>
+      <c r="U5">
+        <v>2</v>
+      </c>
+      <c r="V5">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="31.375" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.875" customWidth="1"/>
+    <col min="7" max="7" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.125" customWidth="1"/>
+    <col min="9" max="9" width="36.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="15">
+        <v>1500</v>
+      </c>
+      <c r="G2" s="15">
+        <v>-1</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="15">
+        <v>1201</v>
+      </c>
+      <c r="G3" s="15">
+        <v>1499</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="15">
+        <v>1000</v>
+      </c>
+      <c r="G4" s="15">
+        <v>1200</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="16">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="15">
+        <v>1500</v>
+      </c>
+      <c r="G5" s="15">
+        <v>-1</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="16">
+        <v>2</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="15">
+        <v>1201</v>
+      </c>
+      <c r="G6" s="15">
+        <v>1499</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="16">
+        <v>2</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="15">
+        <v>1000</v>
+      </c>
+      <c r="G7" s="15">
+        <v>1200</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="15">
+        <v>1500</v>
+      </c>
+      <c r="G8" s="15">
+        <v>-1</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7">
+        <v>3</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="15">
+        <v>1201</v>
+      </c>
+      <c r="G9" s="15">
+        <v>1499</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7">
+        <v>3</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="15">
+        <v>1000</v>
+      </c>
+      <c r="G10" s="15">
+        <v>1200</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="15">
+        <v>1500</v>
+      </c>
+      <c r="G11" s="15">
+        <v>-1</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7">
+        <v>4</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="15">
+        <v>1201</v>
+      </c>
+      <c r="G12" s="15">
+        <v>1499</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7">
+        <v>4</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="15">
+        <v>1000</v>
+      </c>
+      <c r="G13" s="15">
+        <v>1200</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B14" s="7"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="14"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B15" s="7"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="14"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F20" s="18"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F21" s="18"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F22" s="18"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/config_debug/sysbypms_rank_config.xlsx
+++ b/config_debug/sysbypms_rank_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25335" windowHeight="10830" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25335" windowHeight="10830"/>
   </bookViews>
   <sheets>
     <sheet name="config|每日奖励" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="96">
   <si>
     <t>id|行号</t>
   </si>
@@ -44,48 +44,10 @@
     <t>1,1</t>
   </si>
   <si>
-    <t>"shop_gold_sum","jing_bi",</t>
-  </si>
-  <si>
     <t>2,2</t>
   </si>
   <si>
     <t>3,3</t>
-  </si>
-  <si>
-    <t>4,50</t>
-  </si>
-  <si>
-    <r>
-      <t>500</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>100000</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_flq1","ty_icon_jb_30y",</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>game_tag|游戏标签</t>
@@ -628,12 +590,31 @@
     <t>"200000鲸币",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>4,10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_flq1",</t>
+  </si>
+  <si>
+    <t>"ty_icon_flq1",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -670,14 +651,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -691,7 +664,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -702,6 +675,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF8DB4E2"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -747,7 +726,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -756,15 +735,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -781,7 +751,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -794,6 +764,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1072,16 +1054,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.375" customWidth="1"/>
-    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="19.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.625" customWidth="1"/>
     <col min="5" max="5" width="40.625" customWidth="1"/>
     <col min="6" max="6" width="57.5" customWidth="1"/>
@@ -1108,83 +1091,83 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17">
+        <v>1</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="17">
+        <v>2500</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="17">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17">
+        <v>1</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="18">
+        <v>1500</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="17">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17">
+        <v>1</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>12</v>
+      <c r="D4" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="17">
+        <v>1000</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>12</v>
+      <c r="B5" s="17">
+        <v>1</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="17">
+        <v>700</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -1192,19 +1175,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3">
-        <v>51100</v>
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>12</v>
+        <v>93</v>
+      </c>
+      <c r="E6" s="16">
+        <v>5000</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -1215,16 +1198,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>12</v>
+        <v>93</v>
+      </c>
+      <c r="E7" s="16">
+        <v>3000</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -1238,13 +1221,13 @@
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>12</v>
+        <v>93</v>
+      </c>
+      <c r="E8" s="16">
+        <v>2000</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -1255,116 +1238,116 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="16">
+        <v>1400.0000000000002</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="17">
         <v>9</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="B10" s="17">
+        <v>3</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="17">
+        <v>12500</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="17">
+        <v>10</v>
+      </c>
+      <c r="B11" s="17">
+        <v>3</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="D11" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="17">
+        <v>7500</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="17">
         <v>11</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="B12" s="17">
+        <v>3</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="17">
+        <v>5000</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="17">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>2</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
-        <v>2</v>
-      </c>
-      <c r="C11" s="3">
-        <v>51100</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2">
+      <c r="B13" s="17">
         <v>3</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2">
-        <v>3</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>12</v>
+      <c r="C13" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="17">
+        <v>3500.0000000000005</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="2">
-        <v>3</v>
+      <c r="B14" s="16">
+        <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>12</v>
+        <v>93</v>
+      </c>
+      <c r="E14" s="16">
+        <v>25000</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -1372,19 +1355,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>12</v>
+        <v>93</v>
+      </c>
+      <c r="E15" s="16">
+        <v>15000</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -1392,19 +1375,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>3</v>
-      </c>
-      <c r="C16" s="3">
-        <v>51100</v>
+        <v>4</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>12</v>
+        <v>93</v>
+      </c>
+      <c r="E16" s="16">
+        <v>10000</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -1415,96 +1398,16 @@
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2">
-        <v>4</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2">
-        <v>4</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2">
-        <v>4</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2">
-        <v>4</v>
-      </c>
-      <c r="C21" s="3">
-        <v>51100</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>12</v>
+        <v>93</v>
+      </c>
+      <c r="E17" s="16">
+        <v>7000.0000000000009</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1518,8 +1421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1:V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1551,120 +1454,120 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="5">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="8">
+        <v>1</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="8">
-        <v>2</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="J2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="K2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="11">
-        <v>1</v>
-      </c>
-      <c r="H2" s="12" t="s">
+      <c r="L2" s="5">
+        <v>1000</v>
+      </c>
+      <c r="M2" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="N2" s="6">
+        <v>1000</v>
+      </c>
+      <c r="O2" s="6">
+        <v>10</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" s="8">
-        <v>1000</v>
-      </c>
-      <c r="M2" s="8">
-        <v>2000000</v>
-      </c>
-      <c r="N2" s="9">
-        <v>1000</v>
-      </c>
-      <c r="O2" s="9">
-        <v>10</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>42</v>
       </c>
       <c r="R2">
         <v>1</v>
@@ -1686,53 +1589,53 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="8">
+      <c r="B3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="5">
         <v>3</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="8">
+        <v>2</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="K3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="11">
-        <v>2</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="L3" s="8">
+      <c r="L3" s="5">
         <v>10000</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="5">
         <v>20000000</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="6">
         <v>1000</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="6">
         <v>10</v>
       </c>
-      <c r="P3" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>42</v>
+      <c r="P3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="R3">
         <v>1</v>
@@ -1754,53 +1657,53 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="5">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="8">
+        <v>3</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="8">
-        <v>4</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="I4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="L4" s="10">
+        <v>100000</v>
+      </c>
+      <c r="M4" s="6">
+        <v>99999999999</v>
+      </c>
+      <c r="N4" s="6">
+        <v>1000</v>
+      </c>
+      <c r="O4" s="6">
+        <v>10</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="11">
-        <v>3</v>
-      </c>
-      <c r="H4" s="12" t="s">
+      <c r="Q4" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="L4" s="13">
-        <v>100000</v>
-      </c>
-      <c r="M4" s="9">
-        <v>99999999999</v>
-      </c>
-      <c r="N4" s="9">
-        <v>1000</v>
-      </c>
-      <c r="O4" s="9">
-        <v>10</v>
-      </c>
-      <c r="P4" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q4" s="9" t="s">
-        <v>42</v>
       </c>
       <c r="R4">
         <v>1</v>
@@ -1822,53 +1725,53 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="5">
+        <v>5</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="8">
+        <v>4</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="8">
-        <v>5</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" s="11">
-        <v>4</v>
-      </c>
-      <c r="H5" s="12" t="s">
+      <c r="I5" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="M5" s="6">
+        <v>99999999999</v>
+      </c>
+      <c r="N5" s="6">
+        <v>1000</v>
+      </c>
+      <c r="O5" s="6">
+        <v>10</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q5" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="L5" s="13">
-        <v>1000000</v>
-      </c>
-      <c r="M5" s="9">
-        <v>99999999999</v>
-      </c>
-      <c r="N5" s="9">
-        <v>1000</v>
-      </c>
-      <c r="O5" s="9">
-        <v>10</v>
-      </c>
-      <c r="P5" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q5" s="9" t="s">
-        <v>42</v>
       </c>
       <c r="R5">
         <v>1</v>
@@ -1896,8 +1799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1914,421 +1817,421 @@
   <sheetData>
     <row r="1" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="4">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>69</v>
+        <v>64</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="12">
         <v>1500</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="12">
         <v>-1</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>71</v>
+      <c r="H2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>73</v>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="12">
         <v>1201</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="12">
         <v>1499</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>75</v>
+      <c r="H3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="7">
-        <v>1</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>77</v>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>73</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="12">
         <v>1000</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="12">
         <v>1200</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>79</v>
+      <c r="H4" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="13">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>69</v>
+        <v>76</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="12">
         <v>1500</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="12">
         <v>-1</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>48</v>
+      <c r="H5" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="13">
         <v>2</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>82</v>
+      <c r="C6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>78</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="12">
         <v>1201</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="12">
         <v>1499</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>84</v>
+      <c r="H6" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="13">
         <v>2</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>77</v>
+      <c r="C7" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>73</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="12">
         <v>1000</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="12">
         <v>1200</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>87</v>
+      <c r="H7" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="4">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>69</v>
+        <v>76</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="12">
         <v>1500</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="12">
         <v>-1</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>89</v>
+      <c r="H8" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="4">
         <v>3</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>73</v>
+      <c r="C9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="12">
         <v>1201</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="12">
         <v>1499</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>91</v>
+      <c r="H9" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="4">
         <v>3</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>92</v>
+      <c r="C10" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="12">
         <v>1000</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="12">
         <v>1200</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>84</v>
+      <c r="H10" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="4">
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>69</v>
+        <v>76</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="12">
         <v>1500</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="12">
         <v>-1</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>53</v>
+      <c r="H11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="4">
         <v>4</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>82</v>
+      <c r="C12" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>78</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="12">
         <v>1201</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="12">
         <v>1499</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>91</v>
+      <c r="H12" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="4">
         <v>4</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>77</v>
+      <c r="C13" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>73</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="12">
         <v>1000</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="12">
         <v>1200</v>
       </c>
-      <c r="H13" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>84</v>
+      <c r="H13" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B14" s="7"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="14"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B15" s="7"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="14"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="H16" s="10"/>
+      <c r="H16" s="7"/>
     </row>
     <row r="17" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="H17" s="17"/>
+      <c r="H17" s="14"/>
     </row>
     <row r="18" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="H18" s="9"/>
+      <c r="H18" s="6"/>
     </row>
     <row r="19" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="H19" s="9"/>
+      <c r="H19" s="6"/>
     </row>
     <row r="20" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F20" s="18"/>
-      <c r="H20" s="9"/>
+      <c r="F20" s="15"/>
+      <c r="H20" s="6"/>
     </row>
     <row r="21" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F21" s="18"/>
-      <c r="H21" s="9"/>
+      <c r="F21" s="15"/>
+      <c r="H21" s="6"/>
     </row>
     <row r="22" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F22" s="18"/>
+      <c r="F22" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/config_debug/sysbypms_rank_config.xlsx
+++ b/config_debug/sysbypms_rank_config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="112">
   <si>
     <t>id|行号</t>
   </si>
@@ -608,6 +608,83 @@
   <si>
     <t>"ty_icon_flq1",</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2500,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>700,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1400,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>12500,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>7500,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3500,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>25000,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>7000,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -771,11 +848,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1057,7 +1134,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1070,7 +1147,7 @@
     <col min="6" max="6" width="57.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1103,10 +1180,10 @@
       <c r="D2" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="17">
-        <v>2500</v>
-      </c>
-      <c r="F2" s="19" t="s">
+      <c r="E2" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="18" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1123,10 +1200,10 @@
       <c r="D3" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="18">
-        <v>1500</v>
-      </c>
-      <c r="F3" s="19" t="s">
+      <c r="E3" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1143,10 +1220,10 @@
       <c r="D4" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E4" s="17">
-        <v>1000</v>
-      </c>
-      <c r="F4" s="19" t="s">
+      <c r="E4" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="18" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1163,10 +1240,10 @@
       <c r="D5" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="17">
-        <v>700</v>
-      </c>
-      <c r="F5" s="19" t="s">
+      <c r="E5" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="18" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1183,8 +1260,8 @@
       <c r="D6" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E6" s="16">
-        <v>5000</v>
+      <c r="E6" s="16" t="s">
+        <v>100</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>95</v>
@@ -1203,8 +1280,8 @@
       <c r="D7" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="16">
-        <v>3000</v>
+      <c r="E7" s="16" t="s">
+        <v>101</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>95</v>
@@ -1223,8 +1300,8 @@
       <c r="D8" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="16">
-        <v>2000</v>
+      <c r="E8" s="16" t="s">
+        <v>102</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>95</v>
@@ -1243,8 +1320,8 @@
       <c r="D9" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E9" s="16">
-        <v>1400.0000000000002</v>
+      <c r="E9" s="16" t="s">
+        <v>103</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>95</v>
@@ -1263,10 +1340,10 @@
       <c r="D10" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="17">
-        <v>12500</v>
-      </c>
-      <c r="F10" s="19" t="s">
+      <c r="E10" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" s="18" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1283,10 +1360,10 @@
       <c r="D11" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="17">
-        <v>7500</v>
-      </c>
-      <c r="F11" s="19" t="s">
+      <c r="E11" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" s="18" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1303,10 +1380,10 @@
       <c r="D12" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E12" s="17">
-        <v>5000</v>
-      </c>
-      <c r="F12" s="19" t="s">
+      <c r="E12" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" s="18" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1323,10 +1400,10 @@
       <c r="D13" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E13" s="17">
-        <v>3500.0000000000005</v>
-      </c>
-      <c r="F13" s="19" t="s">
+      <c r="E13" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="18" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1343,8 +1420,8 @@
       <c r="D14" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E14" s="16">
-        <v>25000</v>
+      <c r="E14" s="16" t="s">
+        <v>108</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>95</v>
@@ -1363,8 +1440,8 @@
       <c r="D15" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E15" s="16">
-        <v>15000</v>
+      <c r="E15" s="16" t="s">
+        <v>109</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>95</v>
@@ -1383,8 +1460,8 @@
       <c r="D16" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E16" s="16">
-        <v>10000</v>
+      <c r="E16" s="16" t="s">
+        <v>110</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>94</v>
@@ -1403,8 +1480,8 @@
       <c r="D17" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E17" s="16">
-        <v>7000.0000000000009</v>
+      <c r="E17" s="16" t="s">
+        <v>111</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>94</v>

--- a/config_debug/sysbypms_rank_config.xlsx
+++ b/config_debug/sysbypms_rank_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25335" windowHeight="10830"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25335" windowHeight="10830" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="config|每日奖励" sheetId="1" r:id="rId1"/>
@@ -507,10 +507,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"30000鲸币",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"ty_icon_jb_18y",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -523,10 +519,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"10000鲸币",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"ty_icon_jb_15y",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -543,10 +535,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"100000鲸币",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"ty_icon_jb_30y",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -555,10 +543,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"50000鲸币",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"ty_icon_jb_18y",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -571,23 +555,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"300000鲸币",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"ty_icon_jb_98y",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>bs_icon_qt</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"500000鲸币",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"200000鲸币",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -685,6 +657,27 @@
   <si>
     <t>7000,</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"30000金币",</t>
+  </si>
+  <si>
+    <t>"10000金币",</t>
+  </si>
+  <si>
+    <t>"100000金币",</t>
+  </si>
+  <si>
+    <t>"50000金币",</t>
+  </si>
+  <si>
+    <t>"300000金币",</t>
+  </si>
+  <si>
+    <t>"500000金币",</t>
+  </si>
+  <si>
+    <t>"200000金币",</t>
   </si>
 </sst>
 </file>
@@ -1133,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1178,13 +1171,13 @@
         <v>6</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -1198,13 +1191,13 @@
         <v>7</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -1218,13 +1211,13 @@
         <v>8</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -1235,16 +1228,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -1258,13 +1251,13 @@
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>100</v>
-      </c>
       <c r="F6" s="6" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -1278,13 +1271,13 @@
         <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -1298,13 +1291,13 @@
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -1315,16 +1308,16 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -1338,13 +1331,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -1358,13 +1351,13 @@
         <v>7</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -1378,13 +1371,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -1395,16 +1388,16 @@
         <v>3</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -1418,13 +1411,13 @@
         <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -1438,13 +1431,13 @@
         <v>7</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -1458,13 +1451,13 @@
         <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -1475,16 +1468,16 @@
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1498,8 +1491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1:V5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1876,8 +1869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1973,10 +1966,10 @@
         <v>1499</v>
       </c>
       <c r="H3" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -1987,10 +1980,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>72</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>73</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -2002,10 +1995,10 @@
         <v>1200</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -2016,7 +2009,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>65</v>
@@ -2031,7 +2024,7 @@
         <v>-1</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>44</v>
@@ -2048,7 +2041,7 @@
         <v>68</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -2060,10 +2053,10 @@
         <v>1499</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
@@ -2074,10 +2067,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2089,10 +2082,10 @@
         <v>1200</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -2103,7 +2096,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>65</v>
@@ -2118,10 +2111,10 @@
         <v>-1</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -2147,10 +2140,10 @@
         <v>1499</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -2161,10 +2154,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2176,10 +2169,10 @@
         <v>1200</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -2190,7 +2183,7 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>65</v>
@@ -2222,7 +2215,7 @@
         <v>68</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2234,10 +2227,10 @@
         <v>1499</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -2248,10 +2241,10 @@
         <v>4</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>72</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>73</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2263,10 +2256,10 @@
         <v>1200</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">

--- a/config_debug/sysbypms_rank_config.xlsx
+++ b/config_debug/sysbypms_rank_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3DBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1478,8 +1478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1857,7 +1857,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="12">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G2" s="12">
         <v>-1</v>
@@ -1947,10 +1947,10 @@
         <v>1</v>
       </c>
       <c r="F3" s="12">
-        <v>1201</v>
+        <v>1000</v>
       </c>
       <c r="G3" s="12">
-        <v>1499</v>
+        <v>1299</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>100</v>
@@ -1976,10 +1976,10 @@
         <v>1</v>
       </c>
       <c r="F4" s="12">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="G4" s="12">
-        <v>1200</v>
+        <v>999</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>101</v>
@@ -2005,7 +2005,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="12">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G5" s="12">
         <v>-1</v>
@@ -2034,10 +2034,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="12">
-        <v>1201</v>
+        <v>1000</v>
       </c>
       <c r="G6" s="12">
-        <v>1499</v>
+        <v>1299</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>103</v>
@@ -2063,10 +2063,10 @@
         <v>1</v>
       </c>
       <c r="F7" s="12">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="G7" s="12">
-        <v>1200</v>
+        <v>999</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>104</v>
@@ -2092,7 +2092,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="12">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G8" s="12">
         <v>-1</v>
@@ -2121,10 +2121,10 @@
         <v>1</v>
       </c>
       <c r="F9" s="12">
-        <v>1201</v>
+        <v>1000</v>
       </c>
       <c r="G9" s="12">
-        <v>1499</v>
+        <v>1299</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>106</v>
@@ -2150,10 +2150,10 @@
         <v>1</v>
       </c>
       <c r="F10" s="12">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="G10" s="12">
-        <v>1200</v>
+        <v>999</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>103</v>
@@ -2179,7 +2179,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="12">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G11" s="12">
         <v>-1</v>
@@ -2208,10 +2208,10 @@
         <v>1</v>
       </c>
       <c r="F12" s="12">
-        <v>1201</v>
+        <v>1000</v>
       </c>
       <c r="G12" s="12">
-        <v>1499</v>
+        <v>1299</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>108</v>
@@ -2237,10 +2237,10 @@
         <v>1</v>
       </c>
       <c r="F13" s="12">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="G13" s="12">
-        <v>1200</v>
+        <v>999</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>109</v>

--- a/config_debug/sysbypms_rank_config.xlsx
+++ b/config_debug/sysbypms_rank_config.xlsx
@@ -1857,7 +1857,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="12">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="G2" s="12">
         <v>-1</v>
@@ -1947,10 +1947,10 @@
         <v>1</v>
       </c>
       <c r="F3" s="12">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="G3" s="12">
-        <v>1299</v>
+        <v>1499</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>100</v>
@@ -1976,10 +1976,10 @@
         <v>1</v>
       </c>
       <c r="F4" s="12">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="G4" s="12">
-        <v>999</v>
+        <v>1299</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>101</v>
@@ -2005,7 +2005,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="12">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="G5" s="12">
         <v>-1</v>
@@ -2034,10 +2034,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="12">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="G6" s="12">
-        <v>1299</v>
+        <v>1499</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>103</v>
@@ -2063,10 +2063,10 @@
         <v>1</v>
       </c>
       <c r="F7" s="12">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="G7" s="12">
-        <v>999</v>
+        <v>1299</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>104</v>
@@ -2092,7 +2092,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="12">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="G8" s="12">
         <v>-1</v>
@@ -2121,10 +2121,10 @@
         <v>1</v>
       </c>
       <c r="F9" s="12">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="G9" s="12">
-        <v>1299</v>
+        <v>1499</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>106</v>
@@ -2150,10 +2150,10 @@
         <v>1</v>
       </c>
       <c r="F10" s="12">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="G10" s="12">
-        <v>999</v>
+        <v>1299</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>103</v>
@@ -2179,7 +2179,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="12">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="G11" s="12">
         <v>-1</v>
@@ -2208,10 +2208,10 @@
         <v>1</v>
       </c>
       <c r="F12" s="12">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="G12" s="12">
-        <v>1299</v>
+        <v>1499</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>108</v>
@@ -2237,10 +2237,10 @@
         <v>1</v>
       </c>
       <c r="F13" s="12">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="G13" s="12">
-        <v>999</v>
+        <v>1299</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>109</v>
